--- a/biology/Botanique/Square_Hector-Berlioz/Square_Hector-Berlioz.xlsx
+++ b/biology/Botanique/Square_Hector-Berlioz/Square_Hector-Berlioz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Hector-Berlioz est un espace vert  du 9e arrondissement de Paris dans le quartier Saint-Georges.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 897 m2, ce square est situé sur la place Adolphe-Max (autrefois place Vintimille), près de la place Clichy.
 Ce site est desservi par les lignes 2 et 13 à la station de métro Place de Clichy et par la ligne 2 à la station Blanche.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom d'Hector Berlioz (1803-1869) compositeur, chef d'orchestre, critique musical et écrivain français.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est créé entre 1841[1] et 1844, à l'emplacement d'une pièce d'eau des anciens jardins de Tivoli (ancien domaine du pavillon La Bouëxière). Le square porte alors le nom de « square Sainte-Hélène » parce qu’on disait qu'un particulier y avait planté un    scion du saule ombrageant la tombe de Napoléon à Sainte-Hélène. L’arbre était à l’emplacement de la statue de Berlioz.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est créé entre 1841 et 1844, à l'emplacement d'une pièce d'eau des anciens jardins de Tivoli (ancien domaine du pavillon La Bouëxière). Le square porte alors le nom de « square Sainte-Hélène » parce qu’on disait qu'un particulier y avait planté un    scion du saule ombrageant la tombe de Napoléon à Sainte-Hélène. L’arbre était à l’emplacement de la statue de Berlioz.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les statues du jardin ont eu une vie mouvementée : 
-en 1850[2], une statue représentant Napoléon en Prométhée, due au sculpteur Roland Mathieu-Meunier, est installée. La statue était en marbre, majestueuse (2,20 m de hauteur), et présentait l'Empereur entièrement nu. Cette nudité héroïque choqua des habitants du quartier, qui badigeonnèrent un uniforme sur le corps de la statue. Ainsi vandalisée, l'œuvre fut détruite à la demande du sculpteur[3] ;
+en 1850, une statue représentant Napoléon en Prométhée, due au sculpteur Roland Mathieu-Meunier, est installée. La statue était en marbre, majestueuse (2,20 m de hauteur), et présentait l'Empereur entièrement nu. Cette nudité héroïque choqua des habitants du quartier, qui badigeonnèrent un uniforme sur le corps de la statue. Ainsi vandalisée, l'œuvre fut détruite à la demande du sculpteur ;
 en 1886, cinq ans après qu'une souscription fut ouverte, on plaça une statue en bronze d’Hector Berlioz due à Alfred Lenoir ;
 en 1941, la statue en bronze représentant Hector Berlioz réalisée par Alfred Lenoir est fondue, dans le cadre de la mobilisation des métaux non ferreux ;
 en 1948, une statue de remplacement en pierre réalisée par Georges Saupiquet est installée.</t>
